--- a/GuideLine&Template/Gui tai lieu SV CNPM/DATN_RH/6.Testing/Test case/(RH) Test case-Sprint 1-ver1.0.xlsx
+++ b/GuideLine&Template/Gui tai lieu SV CNPM/DATN_RH/6.Testing/Test case/(RH) Test case-Sprint 1-ver1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="682" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="682" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Admin_Test_Case_List" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <externalReferences>
     <externalReference r:id="rId8"/>
   </externalReferences>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -613,7 +613,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
@@ -1974,6 +1974,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1986,13 +2002,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="50" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2011,27 +2048,45 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2041,61 +2096,6 @@
     <xf numFmtId="0" fontId="22" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2762,37 +2762,37 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="42.5703125" customWidth="1"/>
-    <col min="2" max="2" width="37.28515625" customWidth="1"/>
-    <col min="3" max="3" width="39.140625" customWidth="1"/>
-    <col min="4" max="4" width="43.140625" customWidth="1"/>
+    <col min="1" max="1" width="42.5546875" customWidth="1"/>
+    <col min="2" max="2" width="37.33203125" customWidth="1"/>
+    <col min="3" max="3" width="39.109375" customWidth="1"/>
+    <col min="4" max="4" width="43.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="175" t="s">
+      <c r="A1" s="183" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="175"/>
-      <c r="C1" s="175"/>
-      <c r="D1" s="175"/>
+      <c r="B1" s="183"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="183"/>
     </row>
     <row r="2" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A2" s="175"/>
-      <c r="B2" s="175"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
+      <c r="A2" s="183"/>
+      <c r="B2" s="183"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="183"/>
     </row>
     <row r="3" spans="1:4" ht="33.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="176" t="s">
+      <c r="B3" s="184" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="177"/>
-      <c r="D3" s="178"/>
+      <c r="C3" s="185"/>
+      <c r="D3" s="186"/>
     </row>
     <row r="4" spans="1:4" ht="20.25" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -2802,7 +2802,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" ht="15.75">
+    <row r="5" spans="1:4" ht="15.6">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2859,28 +2859,28 @@
       <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="215">
+      <c r="A10" s="175">
         <v>4</v>
       </c>
-      <c r="B10" s="216" t="s">
+      <c r="B10" s="176" t="s">
         <v>144</v>
       </c>
-      <c r="C10" s="217" t="s">
+      <c r="C10" s="177" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="218"/>
+      <c r="D10" s="178"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="219">
+      <c r="A11" s="179">
         <v>5</v>
       </c>
-      <c r="B11" s="220" t="s">
+      <c r="B11" s="180" t="s">
         <v>150</v>
       </c>
-      <c r="C11" s="221" t="s">
+      <c r="C11" s="181" t="s">
         <v>150</v>
       </c>
-      <c r="D11" s="222"/>
+      <c r="D11" s="182"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2906,31 +2906,31 @@
       <selection activeCell="C10" sqref="C10:P13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="89" customFormat="1" ht="26.25">
-      <c r="A1" s="179" t="s">
+    <row r="1" spans="1:16" s="89" customFormat="1" ht="24.6">
+      <c r="A1" s="196" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="179"/>
-      <c r="C1" s="179"/>
-      <c r="D1" s="179"/>
-      <c r="E1" s="179"/>
-      <c r="F1" s="179"/>
-      <c r="G1" s="179"/>
-      <c r="H1" s="179"/>
-      <c r="I1" s="179"/>
-      <c r="J1" s="179"/>
-      <c r="K1" s="179"/>
+      <c r="B1" s="196"/>
+      <c r="C1" s="196"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="196"/>
+      <c r="F1" s="196"/>
+      <c r="G1" s="196"/>
+      <c r="H1" s="196"/>
+      <c r="I1" s="196"/>
+      <c r="J1" s="196"/>
+      <c r="K1" s="196"/>
       <c r="L1" s="88"/>
     </row>
-    <row r="2" spans="1:16" s="89" customFormat="1" ht="12.75">
+    <row r="2" spans="1:16" s="89" customFormat="1" ht="13.2">
       <c r="A2" s="90"/>
       <c r="B2" s="91"/>
       <c r="C2" s="91"/>
@@ -2948,26 +2948,26 @@
       <c r="O2" s="92"/>
       <c r="P2" s="92"/>
     </row>
-    <row r="3" spans="1:16" s="89" customFormat="1" ht="12.75">
+    <row r="3" spans="1:16" s="89" customFormat="1" ht="13.2">
       <c r="A3" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="180" t="s">
+      <c r="B3" s="190" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="180"/>
+      <c r="C3" s="190"/>
       <c r="D3" s="94"/>
-      <c r="E3" s="180" t="s">
+      <c r="E3" s="190" t="s">
         <v>102</v>
       </c>
-      <c r="F3" s="180"/>
-      <c r="G3" s="180"/>
-      <c r="H3" s="182" t="s">
+      <c r="F3" s="190"/>
+      <c r="G3" s="190"/>
+      <c r="H3" s="197" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="183"/>
-      <c r="J3" s="183"/>
-      <c r="K3" s="184"/>
+      <c r="I3" s="198"/>
+      <c r="J3" s="198"/>
+      <c r="K3" s="199"/>
       <c r="L3" s="95"/>
       <c r="M3" s="95"/>
       <c r="N3" s="95"/>
@@ -2976,20 +2976,20 @@
     </row>
     <row r="4" spans="1:16" s="89" customFormat="1">
       <c r="A4" s="93"/>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
+      <c r="B4" s="189"/>
+      <c r="C4" s="189"/>
       <c r="D4" s="96"/>
-      <c r="E4" s="180" t="s">
+      <c r="E4" s="190" t="s">
         <v>103</v>
       </c>
-      <c r="F4" s="180"/>
-      <c r="G4" s="180"/>
-      <c r="H4" s="185" t="s">
+      <c r="F4" s="190"/>
+      <c r="G4" s="190"/>
+      <c r="H4" s="200" t="s">
         <v>148</v>
       </c>
-      <c r="I4" s="186"/>
-      <c r="J4" s="186"/>
-      <c r="K4" s="187"/>
+      <c r="I4" s="201"/>
+      <c r="J4" s="201"/>
+      <c r="K4" s="202"/>
       <c r="L4" s="96"/>
       <c r="M4" s="95"/>
       <c r="N4" s="95"/>
@@ -2998,20 +2998,20 @@
     </row>
     <row r="5" spans="1:16" s="89" customFormat="1">
       <c r="A5" s="97"/>
-      <c r="B5" s="181"/>
-      <c r="C5" s="181"/>
+      <c r="B5" s="189"/>
+      <c r="C5" s="189"/>
       <c r="D5" s="96"/>
-      <c r="E5" s="180" t="s">
+      <c r="E5" s="190" t="s">
         <v>104</v>
       </c>
-      <c r="F5" s="180"/>
-      <c r="G5" s="180"/>
-      <c r="H5" s="192">
+      <c r="F5" s="190"/>
+      <c r="G5" s="190"/>
+      <c r="H5" s="193">
         <v>43155</v>
       </c>
-      <c r="I5" s="193"/>
-      <c r="J5" s="193"/>
-      <c r="K5" s="194"/>
+      <c r="I5" s="194"/>
+      <c r="J5" s="194"/>
+      <c r="K5" s="195"/>
       <c r="L5" s="96"/>
       <c r="M5" s="95"/>
       <c r="N5" s="95"/>
@@ -3022,18 +3022,18 @@
       <c r="A6" s="98" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="190" t="s">
+      <c r="B6" s="191" t="s">
         <v>106</v>
       </c>
-      <c r="C6" s="190"/>
-      <c r="D6" s="190"/>
-      <c r="E6" s="190"/>
-      <c r="F6" s="190"/>
-      <c r="G6" s="190"/>
-      <c r="H6" s="190"/>
-      <c r="I6" s="190"/>
-      <c r="J6" s="190"/>
-      <c r="K6" s="190"/>
+      <c r="C6" s="191"/>
+      <c r="D6" s="191"/>
+      <c r="E6" s="191"/>
+      <c r="F6" s="191"/>
+      <c r="G6" s="191"/>
+      <c r="H6" s="191"/>
+      <c r="I6" s="191"/>
+      <c r="J6" s="191"/>
+      <c r="K6" s="191"/>
       <c r="L6" s="99"/>
       <c r="M6" s="100"/>
       <c r="N6" s="100"/>
@@ -3043,52 +3043,52 @@
     <row r="7" spans="1:16" s="89" customFormat="1" ht="20.25" customHeight="1">
       <c r="A7" s="101"/>
       <c r="B7" s="102"/>
-      <c r="C7" s="191" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="191"/>
-      <c r="E7" s="191" t="s">
+      <c r="C7" s="192" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="192"/>
+      <c r="E7" s="192" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="191"/>
-      <c r="G7" s="191" t="s">
+      <c r="F7" s="192"/>
+      <c r="G7" s="192" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="191"/>
-      <c r="I7" s="191" t="s">
+      <c r="H7" s="192"/>
+      <c r="I7" s="192" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="191"/>
-      <c r="K7" s="191" t="s">
+      <c r="J7" s="192"/>
+      <c r="K7" s="192" t="s">
         <v>107</v>
       </c>
-      <c r="L7" s="191"/>
-      <c r="M7" s="188" t="s">
+      <c r="L7" s="192"/>
+      <c r="M7" s="187" t="s">
         <v>108</v>
       </c>
-      <c r="N7" s="188"/>
-      <c r="O7" s="189" t="s">
+      <c r="N7" s="187"/>
+      <c r="O7" s="188" t="s">
         <v>109</v>
       </c>
-      <c r="P7" s="189"/>
-    </row>
-    <row r="8" spans="1:16" s="89" customFormat="1" ht="12.75">
+      <c r="P7" s="188"/>
+    </row>
+    <row r="8" spans="1:16" s="89" customFormat="1" ht="13.2">
       <c r="A8" s="103"/>
       <c r="B8" s="104"/>
-      <c r="C8" s="191"/>
-      <c r="D8" s="191"/>
-      <c r="E8" s="191"/>
-      <c r="F8" s="191"/>
-      <c r="G8" s="191"/>
-      <c r="H8" s="191"/>
-      <c r="I8" s="191"/>
-      <c r="J8" s="191"/>
-      <c r="K8" s="191"/>
-      <c r="L8" s="191"/>
-      <c r="M8" s="188"/>
-      <c r="N8" s="188"/>
-      <c r="O8" s="189"/>
-      <c r="P8" s="189"/>
+      <c r="C8" s="192"/>
+      <c r="D8" s="192"/>
+      <c r="E8" s="192"/>
+      <c r="F8" s="192"/>
+      <c r="G8" s="192"/>
+      <c r="H8" s="192"/>
+      <c r="I8" s="192"/>
+      <c r="J8" s="192"/>
+      <c r="K8" s="192"/>
+      <c r="L8" s="192"/>
+      <c r="M8" s="187"/>
+      <c r="N8" s="187"/>
+      <c r="O8" s="188"/>
+      <c r="P8" s="188"/>
     </row>
     <row r="9" spans="1:16" s="107" customFormat="1" ht="22.5" customHeight="1">
       <c r="A9" s="105" t="s">
@@ -3140,7 +3140,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="89" customFormat="1" ht="31.7" customHeight="1">
+    <row r="10" spans="1:16" s="89" customFormat="1" ht="31.65" customHeight="1">
       <c r="A10" s="108">
         <v>1</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="89" customFormat="1" ht="12.75">
+    <row r="15" spans="1:16" s="89" customFormat="1" ht="13.2">
       <c r="A15" s="113"/>
       <c r="B15" s="114" t="s">
         <v>112</v>
@@ -3517,7 +3517,7 @@
         <v>282.8</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="124" customFormat="1" ht="13.5" thickBot="1">
+    <row r="16" spans="1:16" s="124" customFormat="1" ht="13.8" thickBot="1">
       <c r="A16" s="117"/>
       <c r="B16" s="118"/>
       <c r="C16" s="119" t="s">
@@ -3539,7 +3539,7 @@
       <c r="O16" s="123"/>
       <c r="P16" s="123"/>
     </row>
-    <row r="17" spans="1:18" s="89" customFormat="1" ht="13.5" thickBot="1">
+    <row r="17" spans="1:18" s="89" customFormat="1" ht="13.8" thickBot="1">
       <c r="A17" s="91"/>
       <c r="B17" s="125" t="s">
         <v>113</v>
@@ -3564,7 +3564,7 @@
       <c r="O17" s="129"/>
       <c r="P17" s="129"/>
     </row>
-    <row r="18" spans="1:18" s="89" customFormat="1" ht="12.75">
+    <row r="18" spans="1:18" s="89" customFormat="1" ht="13.2">
       <c r="A18" s="130"/>
       <c r="B18" s="131" t="s">
         <v>115</v>
@@ -3596,6 +3596,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="H4:K4"/>
     <mergeCell ref="M7:N8"/>
     <mergeCell ref="O7:P8"/>
     <mergeCell ref="B5:C5"/>
@@ -3607,13 +3614,6 @@
     <mergeCell ref="I7:J8"/>
     <mergeCell ref="K7:L8"/>
     <mergeCell ref="H5:K5"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="H4:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
@@ -3624,24 +3624,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="70" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="14" customFormat="1" ht="12.75">
+    <row r="1" spans="1:13" s="14" customFormat="1" ht="13.2">
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
@@ -3660,7 +3660,7 @@
       <c r="L1" s="21"/>
       <c r="M1" s="21"/>
     </row>
-    <row r="2" spans="1:13" s="14" customFormat="1" ht="12.75">
+    <row r="2" spans="1:13" s="14" customFormat="1" ht="13.2">
       <c r="A2" s="10" t="s">
         <v>17</v>
       </c>
@@ -3679,7 +3679,7 @@
       <c r="L2" s="21"/>
       <c r="M2" s="21"/>
     </row>
-    <row r="3" spans="1:13" s="14" customFormat="1" ht="12.75">
+    <row r="3" spans="1:13" s="14" customFormat="1" ht="13.2">
       <c r="A3" s="12"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -3694,7 +3694,7 @@
       <c r="L3" s="21"/>
       <c r="M3" s="21"/>
     </row>
-    <row r="4" spans="1:13" s="14" customFormat="1" ht="12.75">
+    <row r="4" spans="1:13" s="14" customFormat="1" ht="13.2">
       <c r="A4" s="12"/>
       <c r="B4" s="15" t="s">
         <v>10</v>
@@ -3719,7 +3719,7 @@
       <c r="L4" s="21"/>
       <c r="M4" s="21"/>
     </row>
-    <row r="5" spans="1:13" s="14" customFormat="1" ht="12.75">
+    <row r="5" spans="1:13" s="14" customFormat="1" ht="13.2">
       <c r="A5" s="11" t="s">
         <v>14</v>
       </c>
@@ -3751,7 +3751,7 @@
       <c r="L5" s="21"/>
       <c r="M5" s="21"/>
     </row>
-    <row r="6" spans="1:13" s="14" customFormat="1" ht="12.75">
+    <row r="6" spans="1:13" s="14" customFormat="1" ht="13.2">
       <c r="A6" s="11" t="s">
         <v>15</v>
       </c>
@@ -3798,28 +3798,28 @@
       <c r="L7" s="21"/>
       <c r="M7" s="21"/>
     </row>
-    <row r="8" spans="1:13" s="14" customFormat="1" ht="12.75">
+    <row r="8" spans="1:13" s="14" customFormat="1" ht="13.2">
       <c r="A8" s="25"/>
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
       <c r="D8" s="26"/>
       <c r="E8" s="27"/>
       <c r="F8" s="26"/>
-      <c r="G8" s="204" t="s">
+      <c r="G8" s="207" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="205"/>
-      <c r="I8" s="206"/>
-      <c r="J8" s="204" t="s">
+      <c r="H8" s="208"/>
+      <c r="I8" s="209"/>
+      <c r="J8" s="207" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="205"/>
-      <c r="L8" s="206"/>
-      <c r="M8" s="207" t="s">
+      <c r="K8" s="208"/>
+      <c r="L8" s="209"/>
+      <c r="M8" s="210" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="14" customFormat="1" ht="12.75">
+    <row r="9" spans="1:13" s="14" customFormat="1" ht="13.2">
       <c r="A9" s="29" t="s">
         <v>21</v>
       </c>
@@ -3838,19 +3838,19 @@
       <c r="F9" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="209" t="s">
+      <c r="G9" s="212" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="210"/>
-      <c r="I9" s="211"/>
-      <c r="J9" s="209" t="s">
+      <c r="H9" s="213"/>
+      <c r="I9" s="214"/>
+      <c r="J9" s="212" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="210"/>
-      <c r="L9" s="211"/>
-      <c r="M9" s="207"/>
-    </row>
-    <row r="10" spans="1:13" s="14" customFormat="1" ht="12.75">
+      <c r="K9" s="213"/>
+      <c r="L9" s="214"/>
+      <c r="M9" s="210"/>
+    </row>
+    <row r="10" spans="1:13" s="14" customFormat="1" ht="13.2">
       <c r="A10" s="29"/>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
@@ -3875,24 +3875,24 @@
       <c r="L10" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="208"/>
-    </row>
-    <row r="11" spans="1:13" s="14" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A11" s="212" t="s">
+      <c r="M10" s="211"/>
+    </row>
+    <row r="11" spans="1:13" s="14" customFormat="1" ht="12.9" customHeight="1">
+      <c r="A11" s="215" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="213"/>
-      <c r="C11" s="213"/>
-      <c r="D11" s="213"/>
-      <c r="E11" s="213"/>
-      <c r="F11" s="213"/>
-      <c r="G11" s="213"/>
-      <c r="H11" s="213"/>
-      <c r="I11" s="213"/>
-      <c r="J11" s="213"/>
-      <c r="K11" s="213"/>
-      <c r="L11" s="213"/>
-      <c r="M11" s="214"/>
+      <c r="B11" s="216"/>
+      <c r="C11" s="216"/>
+      <c r="D11" s="216"/>
+      <c r="E11" s="216"/>
+      <c r="F11" s="216"/>
+      <c r="G11" s="216"/>
+      <c r="H11" s="216"/>
+      <c r="I11" s="216"/>
+      <c r="J11" s="216"/>
+      <c r="K11" s="216"/>
+      <c r="L11" s="216"/>
+      <c r="M11" s="217"/>
     </row>
     <row r="12" spans="1:13" s="14" customFormat="1" ht="69.75" customHeight="1">
       <c r="A12" s="33" t="s">
@@ -3993,7 +3993,7 @@
       </c>
       <c r="M14" s="34"/>
     </row>
-    <row r="15" spans="1:13" s="14" customFormat="1" ht="51">
+    <row r="15" spans="1:13" s="14" customFormat="1" ht="52.8">
       <c r="A15" s="33" t="s">
         <v>40</v>
       </c>
@@ -4059,22 +4059,22 @@
       </c>
       <c r="M16" s="34"/>
     </row>
-    <row r="17" spans="1:13" s="203" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A17" s="200" t="s">
+    <row r="17" spans="1:13" s="206" customFormat="1" ht="12.9" customHeight="1">
+      <c r="A17" s="203" t="s">
         <v>121</v>
       </c>
-      <c r="B17" s="201"/>
-      <c r="C17" s="201"/>
-      <c r="D17" s="201"/>
-      <c r="E17" s="201"/>
-      <c r="F17" s="201"/>
-      <c r="G17" s="201"/>
-      <c r="H17" s="201"/>
-      <c r="I17" s="201"/>
-      <c r="J17" s="201"/>
-      <c r="K17" s="201"/>
-      <c r="L17" s="201"/>
-      <c r="M17" s="202"/>
+      <c r="B17" s="204"/>
+      <c r="C17" s="204"/>
+      <c r="D17" s="204"/>
+      <c r="E17" s="204"/>
+      <c r="F17" s="204"/>
+      <c r="G17" s="204"/>
+      <c r="H17" s="204"/>
+      <c r="I17" s="204"/>
+      <c r="J17" s="204"/>
+      <c r="K17" s="204"/>
+      <c r="L17" s="204"/>
+      <c r="M17" s="205"/>
     </row>
     <row r="18" spans="1:13" s="14" customFormat="1" ht="68.25" customHeight="1">
       <c r="A18" s="39" t="s">
@@ -4111,7 +4111,7 @@
       </c>
       <c r="M18" s="34"/>
     </row>
-    <row r="19" spans="1:13" ht="63.75">
+    <row r="19" spans="1:13" ht="66">
       <c r="A19" s="39" t="s">
         <v>130</v>
       </c>
@@ -4171,24 +4171,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" width="21.88671875" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" customWidth="1"/>
+    <col min="12" max="12" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="14" customFormat="1" ht="17.25" customHeight="1">
@@ -4244,7 +4244,7 @@
       <c r="L3" s="21"/>
       <c r="M3" s="21"/>
     </row>
-    <row r="4" spans="1:13" s="14" customFormat="1" ht="12.75">
+    <row r="4" spans="1:13" s="14" customFormat="1" ht="13.2">
       <c r="A4" s="12"/>
       <c r="B4" s="15" t="s">
         <v>10</v>
@@ -4355,17 +4355,17 @@
       <c r="D8" s="26"/>
       <c r="E8" s="27"/>
       <c r="F8" s="26"/>
-      <c r="G8" s="204" t="s">
+      <c r="G8" s="207" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="205"/>
-      <c r="I8" s="206"/>
-      <c r="J8" s="204" t="s">
+      <c r="H8" s="208"/>
+      <c r="I8" s="209"/>
+      <c r="J8" s="207" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="205"/>
-      <c r="L8" s="206"/>
-      <c r="M8" s="207" t="s">
+      <c r="K8" s="208"/>
+      <c r="L8" s="209"/>
+      <c r="M8" s="210" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4388,17 +4388,17 @@
       <c r="F9" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="209" t="s">
+      <c r="G9" s="212" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="210"/>
-      <c r="I9" s="211"/>
-      <c r="J9" s="209" t="s">
+      <c r="H9" s="213"/>
+      <c r="I9" s="214"/>
+      <c r="J9" s="212" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="210"/>
-      <c r="L9" s="211"/>
-      <c r="M9" s="207"/>
+      <c r="K9" s="213"/>
+      <c r="L9" s="214"/>
+      <c r="M9" s="210"/>
     </row>
     <row r="10" spans="1:13" s="14" customFormat="1" ht="18.75" customHeight="1">
       <c r="A10" s="29"/>
@@ -4425,24 +4425,24 @@
       <c r="L10" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="208"/>
+      <c r="M10" s="211"/>
     </row>
     <row r="11" spans="1:13" s="14" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A11" s="212" t="s">
+      <c r="A11" s="215" t="s">
         <v>123</v>
       </c>
-      <c r="B11" s="213"/>
-      <c r="C11" s="213"/>
-      <c r="D11" s="213"/>
-      <c r="E11" s="213"/>
-      <c r="F11" s="213"/>
-      <c r="G11" s="213"/>
-      <c r="H11" s="213"/>
-      <c r="I11" s="213"/>
-      <c r="J11" s="213"/>
-      <c r="K11" s="213"/>
-      <c r="L11" s="213"/>
-      <c r="M11" s="214"/>
+      <c r="B11" s="216"/>
+      <c r="C11" s="216"/>
+      <c r="D11" s="216"/>
+      <c r="E11" s="216"/>
+      <c r="F11" s="216"/>
+      <c r="G11" s="216"/>
+      <c r="H11" s="216"/>
+      <c r="I11" s="216"/>
+      <c r="J11" s="216"/>
+      <c r="K11" s="216"/>
+      <c r="L11" s="216"/>
+      <c r="M11" s="217"/>
     </row>
     <row r="12" spans="1:13" s="14" customFormat="1" ht="69" customHeight="1">
       <c r="A12" s="33" t="s">
@@ -4609,22 +4609,22 @@
       </c>
       <c r="M16" s="34"/>
     </row>
-    <row r="17" spans="1:13" s="203" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A17" s="200" t="s">
+    <row r="17" spans="1:13" s="206" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A17" s="203" t="s">
         <v>124</v>
       </c>
-      <c r="B17" s="201"/>
-      <c r="C17" s="201"/>
-      <c r="D17" s="201"/>
-      <c r="E17" s="201"/>
-      <c r="F17" s="201"/>
-      <c r="G17" s="201"/>
-      <c r="H17" s="201"/>
-      <c r="I17" s="201"/>
-      <c r="J17" s="201"/>
-      <c r="K17" s="201"/>
-      <c r="L17" s="201"/>
-      <c r="M17" s="202"/>
+      <c r="B17" s="204"/>
+      <c r="C17" s="204"/>
+      <c r="D17" s="204"/>
+      <c r="E17" s="204"/>
+      <c r="F17" s="204"/>
+      <c r="G17" s="204"/>
+      <c r="H17" s="204"/>
+      <c r="I17" s="204"/>
+      <c r="J17" s="204"/>
+      <c r="K17" s="204"/>
+      <c r="L17" s="204"/>
+      <c r="M17" s="205"/>
     </row>
     <row r="18" spans="1:13" s="14" customFormat="1" ht="52.5" customHeight="1">
       <c r="A18" s="39" t="s">
@@ -4725,17 +4725,17 @@
       <selection activeCell="B12" sqref="B12:B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -4902,17 +4902,17 @@
       <c r="D8" s="62"/>
       <c r="E8" s="63"/>
       <c r="F8" s="62"/>
-      <c r="G8" s="198" t="s">
+      <c r="G8" s="221" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
-      <c r="J8" s="198" t="s">
+      <c r="H8" s="221"/>
+      <c r="I8" s="221"/>
+      <c r="J8" s="221" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="198"/>
-      <c r="L8" s="198"/>
-      <c r="M8" s="198" t="s">
+      <c r="K8" s="221"/>
+      <c r="L8" s="221"/>
+      <c r="M8" s="221" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4935,17 +4935,17 @@
       <c r="F9" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="199" t="s">
+      <c r="G9" s="222" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="199"/>
-      <c r="I9" s="199"/>
-      <c r="J9" s="199" t="s">
+      <c r="H9" s="222"/>
+      <c r="I9" s="222"/>
+      <c r="J9" s="222" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="199"/>
-      <c r="L9" s="199"/>
-      <c r="M9" s="198"/>
+      <c r="K9" s="222"/>
+      <c r="L9" s="222"/>
+      <c r="M9" s="221"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="64"/>
@@ -4972,24 +4972,24 @@
       <c r="L10" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="198"/>
+      <c r="M10" s="221"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="195" t="s">
+      <c r="A11" s="218" t="s">
         <v>127</v>
       </c>
-      <c r="B11" s="196"/>
-      <c r="C11" s="196"/>
-      <c r="D11" s="196"/>
-      <c r="E11" s="196"/>
-      <c r="F11" s="196"/>
-      <c r="G11" s="196"/>
-      <c r="H11" s="196"/>
-      <c r="I11" s="196"/>
-      <c r="J11" s="196"/>
-      <c r="K11" s="196"/>
-      <c r="L11" s="196"/>
-      <c r="M11" s="197"/>
+      <c r="B11" s="219"/>
+      <c r="C11" s="219"/>
+      <c r="D11" s="219"/>
+      <c r="E11" s="219"/>
+      <c r="F11" s="219"/>
+      <c r="G11" s="219"/>
+      <c r="H11" s="219"/>
+      <c r="I11" s="219"/>
+      <c r="J11" s="219"/>
+      <c r="K11" s="219"/>
+      <c r="L11" s="219"/>
+      <c r="M11" s="220"/>
     </row>
     <row r="12" spans="1:13" s="153" customFormat="1" ht="95.25" customHeight="1">
       <c r="A12" s="69" t="s">
@@ -5189,7 +5189,7 @@
       </c>
       <c r="M17" s="71"/>
     </row>
-    <row r="18" spans="1:18" ht="89.25">
+    <row r="18" spans="1:18" ht="92.4">
       <c r="A18" s="69" t="s">
         <v>93</v>
       </c>
@@ -5409,7 +5409,7 @@
       <c r="Q24" s="87"/>
       <c r="R24" s="87"/>
     </row>
-    <row r="25" spans="1:18" s="82" customFormat="1" ht="51">
+    <row r="25" spans="1:18" s="82" customFormat="1" ht="52.8">
       <c r="A25" s="46" t="s">
         <v>98</v>
       </c>
@@ -5449,7 +5449,7 @@
       <c r="Q25" s="87"/>
       <c r="R25" s="87"/>
     </row>
-    <row r="26" spans="1:18" s="82" customFormat="1" ht="76.5">
+    <row r="26" spans="1:18" s="82" customFormat="1" ht="79.2">
       <c r="A26" s="46" t="s">
         <v>143</v>
       </c>
@@ -5514,21 +5514,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -5695,17 +5695,17 @@
       <c r="D8" s="62"/>
       <c r="E8" s="63"/>
       <c r="F8" s="62"/>
-      <c r="G8" s="198" t="s">
+      <c r="G8" s="221" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
-      <c r="J8" s="198" t="s">
+      <c r="H8" s="221"/>
+      <c r="I8" s="221"/>
+      <c r="J8" s="221" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="198"/>
-      <c r="L8" s="198"/>
-      <c r="M8" s="198" t="s">
+      <c r="K8" s="221"/>
+      <c r="L8" s="221"/>
+      <c r="M8" s="221" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5728,17 +5728,17 @@
       <c r="F9" s="143" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="199" t="s">
+      <c r="G9" s="222" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="199"/>
-      <c r="I9" s="199"/>
-      <c r="J9" s="199" t="s">
+      <c r="H9" s="222"/>
+      <c r="I9" s="222"/>
+      <c r="J9" s="222" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="199"/>
-      <c r="L9" s="199"/>
-      <c r="M9" s="198"/>
+      <c r="K9" s="222"/>
+      <c r="L9" s="222"/>
+      <c r="M9" s="221"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="143"/>
@@ -5765,24 +5765,24 @@
       <c r="L10" s="143" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="198"/>
+      <c r="M10" s="221"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="195" t="s">
+      <c r="A11" s="218" t="s">
         <v>127</v>
       </c>
-      <c r="B11" s="196"/>
-      <c r="C11" s="196"/>
-      <c r="D11" s="196"/>
-      <c r="E11" s="196"/>
-      <c r="F11" s="196"/>
-      <c r="G11" s="196"/>
-      <c r="H11" s="196"/>
-      <c r="I11" s="196"/>
-      <c r="J11" s="196"/>
-      <c r="K11" s="196"/>
-      <c r="L11" s="196"/>
-      <c r="M11" s="197"/>
+      <c r="B11" s="219"/>
+      <c r="C11" s="219"/>
+      <c r="D11" s="219"/>
+      <c r="E11" s="219"/>
+      <c r="F11" s="219"/>
+      <c r="G11" s="219"/>
+      <c r="H11" s="219"/>
+      <c r="I11" s="219"/>
+      <c r="J11" s="219"/>
+      <c r="K11" s="219"/>
+      <c r="L11" s="219"/>
+      <c r="M11" s="220"/>
     </row>
     <row r="12" spans="1:13" s="153" customFormat="1" ht="95.25" customHeight="1">
       <c r="A12" s="69" t="s">
@@ -5972,17 +5972,17 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -6149,17 +6149,17 @@
       <c r="D8" s="62"/>
       <c r="E8" s="63"/>
       <c r="F8" s="62"/>
-      <c r="G8" s="198" t="s">
+      <c r="G8" s="221" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
-      <c r="J8" s="198" t="s">
+      <c r="H8" s="221"/>
+      <c r="I8" s="221"/>
+      <c r="J8" s="221" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="198"/>
-      <c r="L8" s="198"/>
-      <c r="M8" s="198" t="s">
+      <c r="K8" s="221"/>
+      <c r="L8" s="221"/>
+      <c r="M8" s="221" t="s">
         <v>20</v>
       </c>
     </row>
@@ -6182,17 +6182,17 @@
       <c r="F9" s="155" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="199" t="s">
+      <c r="G9" s="222" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="199"/>
-      <c r="I9" s="199"/>
-      <c r="J9" s="199" t="s">
+      <c r="H9" s="222"/>
+      <c r="I9" s="222"/>
+      <c r="J9" s="222" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="199"/>
-      <c r="L9" s="199"/>
-      <c r="M9" s="198"/>
+      <c r="K9" s="222"/>
+      <c r="L9" s="222"/>
+      <c r="M9" s="221"/>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="155"/>
@@ -6219,24 +6219,24 @@
       <c r="L10" s="155" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="198"/>
+      <c r="M10" s="221"/>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="195" t="s">
+      <c r="A11" s="218" t="s">
         <v>151</v>
       </c>
-      <c r="B11" s="196"/>
-      <c r="C11" s="196"/>
-      <c r="D11" s="196"/>
-      <c r="E11" s="196"/>
-      <c r="F11" s="196"/>
-      <c r="G11" s="196"/>
-      <c r="H11" s="196"/>
-      <c r="I11" s="196"/>
-      <c r="J11" s="196"/>
-      <c r="K11" s="196"/>
-      <c r="L11" s="196"/>
-      <c r="M11" s="197"/>
+      <c r="B11" s="219"/>
+      <c r="C11" s="219"/>
+      <c r="D11" s="219"/>
+      <c r="E11" s="219"/>
+      <c r="F11" s="219"/>
+      <c r="G11" s="219"/>
+      <c r="H11" s="219"/>
+      <c r="I11" s="219"/>
+      <c r="J11" s="219"/>
+      <c r="K11" s="219"/>
+      <c r="L11" s="219"/>
+      <c r="M11" s="220"/>
     </row>
     <row r="12" spans="1:18" s="153" customFormat="1" ht="68.25" customHeight="1">
       <c r="A12" s="69" t="s">
@@ -6359,7 +6359,7 @@
       <c r="Q15" s="87"/>
       <c r="R15" s="87"/>
     </row>
-    <row r="16" spans="1:18" s="82" customFormat="1" ht="89.25">
+    <row r="16" spans="1:18" s="82" customFormat="1" ht="92.4">
       <c r="A16" s="46" t="s">
         <v>98</v>
       </c>
@@ -6399,7 +6399,7 @@
       <c r="Q16" s="87"/>
       <c r="R16" s="87"/>
     </row>
-    <row r="17" spans="1:18" s="82" customFormat="1" ht="140.25">
+    <row r="17" spans="1:18" s="82" customFormat="1" ht="145.19999999999999">
       <c r="A17" s="46" t="s">
         <v>143</v>
       </c>
